--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -565,7 +565,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5.743304014205933</v>
+        <v>5.732467174530029</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -565,7 +565,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5.732467174530029</v>
+        <v>5.613508462905884</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>comp_time</t>
   </si>
@@ -113,9 +113,6 @@
     <t>x_us_PV</t>
   </si>
   <si>
-    <t>x_us_generator</t>
-  </si>
-  <si>
     <t>x_us_batt</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>CAPEX_us_PV</t>
   </si>
   <si>
-    <t>CAPEX_us_generator</t>
-  </si>
-  <si>
     <t>CAPEX_us_batt</t>
   </si>
   <si>
@@ -186,9 +180,6 @@
   </si>
   <si>
     <t>C_OEM_us_PV</t>
-  </si>
-  <si>
-    <t>C_OEM_us_generator</t>
   </si>
   <si>
     <t>C_OEM_us_batt</t>
@@ -565,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5.613508462905884</v>
+        <v>3.6772587299346924</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -609,19 +600,19 @@
         <v>0.0</v>
       </c>
       <c r="B2">
-        <v>-50703.119796082145</v>
+        <v>-50703.11979608213</v>
       </c>
       <c r="C2">
-        <v>45181.85066159603</v>
+        <v>45181.850661596065</v>
       </c>
       <c r="D2">
-        <v>-1.206493189864764e6</v>
+        <v>-1.2064931898647628e6</v>
       </c>
       <c r="E2">
-        <v>-1.206493189864764e6</v>
+        <v>-1.2064931898647628e6</v>
       </c>
       <c r="F2">
-        <v>3036.930062754791</v>
+        <v>3036.930062754793</v>
       </c>
     </row>
   </sheetData>
@@ -683,40 +674,40 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>70.5533411469036</v>
+        <v>70.55334114690362</v>
       </c>
       <c r="C2">
-        <v>97.89381112765516</v>
+        <v>97.89381112765514</v>
       </c>
       <c r="D2">
-        <v>78.2804505353064</v>
+        <v>78.28045053530639</v>
       </c>
       <c r="E2">
-        <v>68.20875428947099</v>
+        <v>68.20875428947097</v>
       </c>
       <c r="F2">
-        <v>58.714877054866406</v>
+        <v>58.7148770548664</v>
       </c>
       <c r="G2">
         <v>64.38238675876211</v>
       </c>
       <c r="H2">
-        <v>78.46006385188184</v>
+        <v>78.46006385188183</v>
       </c>
       <c r="I2">
-        <v>67.651662064448</v>
+        <v>66.42216904631434</v>
       </c>
       <c r="J2">
         <v>65.3875213877795</v>
       </c>
       <c r="K2">
-        <v>60.76523740758105</v>
+        <v>61.713700143020986</v>
       </c>
       <c r="L2">
         <v>74.56839820834034</v>
       </c>
       <c r="M2">
-        <v>86.32036308984884</v>
+        <v>86.32036308984883</v>
       </c>
     </row>
   </sheetData>
@@ -726,13 +717,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -757,13 +748,10 @@
       <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>31</v>
       </c>
       <c r="B2">
         <v>55.29324587</v>
@@ -775,16 +763,13 @@
       <c r="E2">
         <v>40.7975617218178</v>
       </c>
-      <c r="F2">
-        <v>0.0</v>
-      </c>
+      <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>27.00540954</v>
@@ -796,18 +781,17 @@
       <c r="E3">
         <v>46.67124509697169</v>
       </c>
-      <c r="F3"/>
+      <c r="F3">
+        <v>3.3348083265571247</v>
+      </c>
       <c r="G3">
-        <v>3.334808326557131</v>
-      </c>
-      <c r="H3">
-        <v>3.334808326557131</v>
-      </c>
-      <c r="I3"/>
-    </row>
-    <row r="4" spans="1:9">
+        <v>3.3348083265571247</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>45.40292054</v>
@@ -817,17 +801,16 @@
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>22.684945819511146</v>
-      </c>
-      <c r="F4"/>
+        <v>22.68494581951114</v>
+      </c>
+      <c r="F4">
+        <v>5.0986036118951</v>
+      </c>
       <c r="G4">
-        <v>5.09860361189509</v>
+        <v>5.0986036118951</v>
       </c>
       <c r="H4">
-        <v>5.09860361189509</v>
-      </c>
-      <c r="I4">
-        <v>73.47867755524787</v>
+        <v>73.4786775552479</v>
       </c>
     </row>
   </sheetData>
@@ -837,83 +820,77 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>-570716.9482471673</v>
@@ -925,7 +902,7 @@
         <v>-32989.10531556325</v>
       </c>
       <c r="E2">
-        <v>2.4130263762003183e-14</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
         <v>18208.94096652678</v>
@@ -946,35 +923,29 @@
       <c r="L2">
         <v>69355.85492709026</v>
       </c>
-      <c r="M2">
-        <v>0.0</v>
-      </c>
+      <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2">
+      <c r="Q2">
         <v>1223.926851654534</v>
       </c>
-      <c r="S2">
-        <v>0.0</v>
-      </c>
+      <c r="R2"/>
+      <c r="S2"/>
       <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-    </row>
-    <row r="3" spans="1:22">
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
-        <v>-229655.52431471148</v>
+        <v>-229654.1601644049</v>
       </c>
       <c r="C3">
         <v>67340.62813169464</v>
       </c>
       <c r="D3">
-        <v>-10715.247977774461</v>
+        <v>-10715.15628544633</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -983,100 +954,96 @@
         <v>21177.802958390144</v>
       </c>
       <c r="G3">
-        <v>1352.4767432991175</v>
+        <v>1352.476743299115</v>
       </c>
       <c r="H3">
-        <v>7727.7803158796005</v>
+        <v>7727.7803158796</v>
       </c>
       <c r="I3">
-        <v>9274.367342711163</v>
+        <v>9274.367342711164</v>
       </c>
       <c r="J3">
-        <v>-138238.02945449608</v>
+        <v>-138236.6653041894</v>
       </c>
       <c r="K3"/>
       <c r="L3">
         <v>65339.743135760364</v>
       </c>
-      <c r="M3"/>
+      <c r="M3">
+        <v>1333.9233306228498</v>
+      </c>
       <c r="N3">
-        <v>1333.9233306228523</v>
-      </c>
-      <c r="O3">
-        <v>666.9616653114261</v>
-      </c>
+        <v>666.9616653114249</v>
+      </c>
+      <c r="O3"/>
       <c r="P3"/>
-      <c r="Q3"/>
+      <c r="Q3">
+        <v>1400.1373529091506</v>
+      </c>
       <c r="R3">
-        <v>1400.1373529091506</v>
-      </c>
-      <c r="S3"/>
-      <c r="T3">
-        <v>16.674041632785656</v>
-      </c>
-      <c r="U3">
-        <v>6.669616653114262</v>
-      </c>
-      <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22">
+        <v>16.674041632785624</v>
+      </c>
+      <c r="S3">
+        <v>6.669616653114249</v>
+      </c>
+      <c r="T3"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>-451302.567964472</v>
+        <v>-451303.9321147784</v>
       </c>
       <c r="C4">
-        <v>259791.10814409849</v>
+        <v>259791.10814409857</v>
       </c>
       <c r="D4">
-        <v>-12566.773292120053</v>
+        <v>-12566.864984448177</v>
       </c>
       <c r="E4">
         <v>0.0</v>
       </c>
       <c r="F4">
-        <v>43451.13710686443</v>
+        <v>43451.137106864444</v>
       </c>
       <c r="G4">
-        <v>2067.8078417502875</v>
+        <v>2067.8078417502916</v>
       </c>
       <c r="H4">
         <v>4772.026288657586</v>
       </c>
       <c r="I4">
-        <v>7253.824536721589</v>
+        <v>7253.824536721587</v>
       </c>
       <c r="J4">
-        <v>-143510.71662369533</v>
+        <v>-143512.08077400186</v>
       </c>
       <c r="K4"/>
       <c r="L4">
-        <v>36295.91331121783</v>
-      </c>
-      <c r="M4"/>
+        <v>36295.913311217824</v>
+      </c>
+      <c r="M4">
+        <v>2039.4414447580398</v>
+      </c>
       <c r="N4">
-        <v>2039.441444758036</v>
+        <v>1019.7207223790199</v>
       </c>
       <c r="O4">
-        <v>1019.720722379018</v>
-      </c>
-      <c r="P4">
-        <v>220436.0326657436</v>
-      </c>
-      <c r="Q4"/>
+        <v>220436.0326657437</v>
+      </c>
+      <c r="P4"/>
+      <c r="Q4">
+        <v>680.5483745853342</v>
+      </c>
       <c r="R4">
-        <v>680.5483745853344</v>
-      </c>
-      <c r="S4"/>
+        <v>25.4930180594755</v>
+      </c>
+      <c r="S4">
+        <v>10.1972072237902</v>
+      </c>
       <c r="T4">
-        <v>25.49301805947545</v>
-      </c>
-      <c r="U4">
-        <v>10.19720722379018</v>
-      </c>
-      <c r="V4">
-        <v>2204.360326657436</v>
+        <v>2204.360326657437</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1061,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -1135,7 +1102,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>50.3983545</v>
@@ -1174,10 +1141,10 @@
         <v>43.56749465</v>
       </c>
       <c r="N2">
-        <v>22.57266299344287</v>
+        <v>22.572662993442876</v>
       </c>
       <c r="O2">
-        <v>21.73748014640597</v>
+        <v>21.737480146405954</v>
       </c>
     </row>
   </sheetData>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6772587299346924</v>
+        <v>3.635974884033203</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.635974884033203</v>
+        <v>3.6800410747528076</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6800410747528076</v>
+        <v>3.7115638256073</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.7115638256073</v>
+        <v>3.8312950134277344</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.8312950134277344</v>
+        <v>3.649919033050537</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.649919033050537</v>
+        <v>3.6918492317199707</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6918492317199707</v>
+        <v>3.7588753700256348</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.7588753700256348</v>
+        <v>3.652681589126587</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.652681589126587</v>
+        <v>3.7034881114959717</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.7034881114959717</v>
+        <v>3.6723897457122803</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6723897457122803</v>
+        <v>3.6370673179626465</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6370673179626465</v>
+        <v>3.6983349323272705</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6983349323272705</v>
+        <v>3.638042449951172</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -754,10 +754,10 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>55.29324587</v>
+        <v>30523.270014740006</v>
       </c>
       <c r="C2">
-        <v>232.10403242918818</v>
+        <v>232.10403242918812</v>
       </c>
       <c r="D2"/>
       <c r="E2">
@@ -772,10 +772,10 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>27.00540954</v>
+        <v>12160.103553284996</v>
       </c>
       <c r="C3">
-        <v>92.46745411323812</v>
+        <v>92.467454113238</v>
       </c>
       <c r="D3"/>
       <c r="E3">
@@ -794,10 +794,10 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>45.40292054</v>
+        <v>24500.351344201987</v>
       </c>
       <c r="C4">
-        <v>186.3047550336197</v>
+        <v>186.30475503361959</v>
       </c>
       <c r="D4"/>
       <c r="E4">

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.638042449951172</v>
+        <v>3.952728509902954</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.952728509902954</v>
+        <v>3.9945476055145264</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.9945476055145264</v>
+        <v>3.8245465755462646</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.8245465755462646</v>
+        <v>3.7356388568878174</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.7356388568878174</v>
+        <v>3.6808462142944336</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6808462142944336</v>
+        <v>3.658751964569092</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -954,7 +954,7 @@
         <v>21177.802958390144</v>
       </c>
       <c r="G3">
-        <v>1352.476743299115</v>
+        <v>1352.4767432991148</v>
       </c>
       <c r="H3">
         <v>7727.7803158796</v>
@@ -1008,7 +1008,7 @@
         <v>43451.137106864444</v>
       </c>
       <c r="G4">
-        <v>2067.8078417502916</v>
+        <v>2067.807841750291</v>
       </c>
       <c r="H4">
         <v>4772.026288657586</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.658751964569092</v>
+        <v>3.7263901233673096</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.7263901233673096</v>
+        <v>3.752899646759033</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.752899646759033</v>
+        <v>3.677638292312622</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.677638292312622</v>
+        <v>3.6937289237976074</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6937289237976074</v>
+        <v>3.745379686355591</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.745379686355591</v>
+        <v>3.6674649715423584</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6674649715423584</v>
+        <v>3.659674882888794</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.659674882888794</v>
+        <v>3.716341018676758</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.716341018676758</v>
+        <v>3.747478723526001</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.747478723526001</v>
+        <v>3.6233251094818115</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6233251094818115</v>
+        <v>3.715003252029419</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.715003252029419</v>
+        <v>3.617279291152954</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.617279291152954</v>
+        <v>3.4965837001800537</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.4965837001800537</v>
+        <v>4.099917650222778</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>4.099917650222778</v>
+        <v>3.6327385902404785</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6327385902404785</v>
+        <v>3.741191864013672</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.741191864013672</v>
+        <v>3.6185195446014404</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6185195446014404</v>
+        <v>3.6528730392456055</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6528730392456055</v>
+        <v>3.6493630409240723</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6493630409240723</v>
+        <v>3.655503988265991</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.655503988265991</v>
+        <v>3.6257588863372803</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6257588863372803</v>
+        <v>3.6541173458099365</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6541173458099365</v>
+        <v>3.6175808906555176</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6175808906555176</v>
+        <v>3.633504629135132</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.633504629135132</v>
+        <v>3.660620927810669</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.660620927810669</v>
+        <v>3.5885279178619385</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.5885279178619385</v>
+        <v>3.6091513633728027</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6091513633728027</v>
+        <v>3.6173107624053955</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_CO.xlsx
+++ b/dev/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6173107624053955</v>
+        <v>3.506913900375366</v>
       </c>
       <c r="B2">
         <v>1</v>
